--- a/data/raw/terek_SY.xlsx
+++ b/data/raw/terek_SY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsyp\YandexDisk\GIT\ssy-rtop\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsyp\YandexDisk\papers\2021\sediment-caucasus-anthropocene\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7832973-3B95-4363-ABBB-CC5DBC2220BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8286E1-D4BD-4248-9D55-F63162B53BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="495" xr2:uid="{ABED18D2-4309-467C-8DB5-37459B197176}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="495" activeTab="1" xr2:uid="{ABED18D2-4309-467C-8DB5-37459B197176}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="11" r:id="rId1"/>
@@ -1220,7 +1220,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,9 +1236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1276,7 +1276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1382,7 +1382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1534,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFFB41F-1D3D-45C9-9C87-7F591EC1180F}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2721,11 +2721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0C88AA-2ECB-419B-9A4C-1A78AA781861}">
   <dimension ref="A1:BN102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AM92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AV97" sqref="AV97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
